--- a/your-github-username-here_github_repos.xlsx
+++ b/your-github-username-here_github_repos.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B15"/>
+  <dimension ref="A1:B14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -556,46 +556,34 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Project</t>
+          <t>repo-scanner</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>https://github.com/Josmietha/Project</t>
+          <t>https://github.com/Josmietha/repo-scanner</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>repo-scanner</t>
+          <t>skill_captain_dsa_arrays</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>https://github.com/Josmietha/repo-scanner</t>
+          <t>https://github.com/Josmietha/skill_captain_dsa_arrays</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>skill_captain_dsa_arrays</t>
+          <t>The-Warrior</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
-        <is>
-          <t>https://github.com/Josmietha/skill_captain_dsa_arrays</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>The-Warrior</t>
-        </is>
-      </c>
-      <c r="B15" t="inlineStr">
         <is>
           <t>https://github.com/Josmietha/The-Warrior</t>
         </is>

--- a/your-github-username-here_github_repos.xlsx
+++ b/your-github-username-here_github_repos.xlsx
@@ -436,132 +436,132 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>GenAI-Hackathon</t>
+          <t>Git_Merge_Conflict_Resolution_Demo</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>https://github.com/Josmietha/GenAI-Hackathon</t>
+          <t>https://github.com/j-chaganti/Git_Merge_Conflict_Resolution_Demo</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Git_Merge_Conflict_Resolution_Demo</t>
+          <t>my-repo</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>https://github.com/Josmietha/Git_Merge_Conflict_Resolution_Demo</t>
+          <t>https://github.com/j-chaganti/my-repo</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>merge-conflict-exercise</t>
+          <t>repo-scanner</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>https://github.com/Josmietha/merge-conflict-exercise</t>
+          <t>https://github.com/j-chaganti/repo-scanner</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>merge-conflict-practice</t>
+          <t>GenAI-Hackathon</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>https://github.com/Josmietha/merge-conflict-practice</t>
+          <t>https://github.com/Josmietha/GenAI-Hackathon</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>My-HTML-Portfolio</t>
+          <t>merge-conflict-exercise</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>https://github.com/Josmietha/My-HTML-Portfolio</t>
+          <t>https://github.com/Josmietha/merge-conflict-exercise</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>my-repo</t>
+          <t>merge-conflict-practice</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>https://github.com/Josmietha/my-repo</t>
+          <t>https://github.com/Josmietha/merge-conflict-practice</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>OCT_Task1</t>
+          <t>My-HTML-Portfolio</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>https://github.com/Josmietha/OCT_Task1</t>
+          <t>https://github.com/Josmietha/My-HTML-Portfolio</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>OIBSIP</t>
+          <t>OCT_Task1</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>https://github.com/Josmietha/OIBSIP</t>
+          <t>https://github.com/Josmietha/OCT_Task1</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Practice</t>
+          <t>OIBSIP</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>https://github.com/Josmietha/Practice</t>
+          <t>https://github.com/Josmietha/OIBSIP</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>practicee</t>
+          <t>Practice</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>https://github.com/Josmietha/practicee</t>
+          <t>https://github.com/Josmietha/Practice</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>repo-scanner</t>
+          <t>practicee</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>https://github.com/Josmietha/repo-scanner</t>
+          <t>https://github.com/Josmietha/practicee</t>
         </is>
       </c>
     </row>
